--- a/llava/selfeval_results.xlsx
+++ b/llava/selfeval_results.xlsx
@@ -442,67 +442,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
